--- a/docs/docs_public/Gantt.xlsx
+++ b/docs/docs_public/Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D744898-2AB7-4518-B170-9B793879F30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A98DE2-65B4-4FC1-B2BA-07B179D4D43D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,61 +158,61 @@
     </r>
   </si>
   <si>
-    <t>E-commerce Platform</t>
-  </si>
-  <si>
     <t>Aloitus</t>
   </si>
   <si>
-    <t>dokumentaatio</t>
-  </si>
-  <si>
-    <t>er-kaavio</t>
-  </si>
-  <si>
-    <t>tilinluonti</t>
-  </si>
-  <si>
-    <t>tuotteet sivu</t>
-  </si>
-  <si>
-    <t>tuotteen tiedot</t>
-  </si>
-  <si>
-    <t>ostoskori</t>
-  </si>
-  <si>
-    <t>nav</t>
-  </si>
-  <si>
-    <t>footer</t>
-  </si>
-  <si>
-    <t>kirjautumien</t>
-  </si>
-  <si>
-    <t>frontend</t>
-  </si>
-  <si>
-    <t>landing</t>
-  </si>
-  <si>
-    <t>backend</t>
-  </si>
-  <si>
-    <t>api (tuotteet)</t>
-  </si>
-  <si>
-    <t>kirjautuminen</t>
-  </si>
-  <si>
     <t>tilin luonti</t>
   </si>
   <si>
     <t>api(tuotteen lisäys)</t>
   </si>
   <si>
-    <t>Admin paneeli</t>
+    <t>ostoskori, Justus</t>
+  </si>
+  <si>
+    <t>tuotteet sivu, Justus</t>
+  </si>
+  <si>
+    <t>footer, Justus</t>
+  </si>
+  <si>
+    <t>nav, Jere</t>
+  </si>
+  <si>
+    <t>kirjautumien, Justus</t>
+  </si>
+  <si>
+    <t>dokumentaatio, kaikki</t>
+  </si>
+  <si>
+    <t>er-kaavio, Jere</t>
+  </si>
+  <si>
+    <t>frontend, Justus ja jere</t>
+  </si>
+  <si>
+    <t>landing, Justus</t>
+  </si>
+  <si>
+    <t>tilinluonti, Santtu</t>
+  </si>
+  <si>
+    <t>backend, Santtu ja jere</t>
+  </si>
+  <si>
+    <t>Admin paneeli, Jere</t>
+  </si>
+  <si>
+    <t>tuotteen tiedot, Jere</t>
+  </si>
+  <si>
+    <t>kirjautuminen, Santtu</t>
+  </si>
+  <si>
+    <t>API:T, Jere ja santtu</t>
+  </si>
+  <si>
+    <t>Verkkokauppa</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1013,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7">
         <v>47</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>47</v>
@@ -1364,12 +1364,12 @@
         <v>53</v>
       </c>
       <c r="G6" s="8">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
         <v>47</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="7">
         <v>48</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>48</v>
@@ -1424,12 +1424,12 @@
         <v>51</v>
       </c>
       <c r="G9" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7">
         <v>50</v>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>49</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" s="7">
         <v>51</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <v>48</v>
@@ -1504,12 +1504,12 @@
         <v>49</v>
       </c>
       <c r="G13" s="8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>48</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7">
         <v>48</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
         <v>48</v>
@@ -1600,15 +1600,15 @@
         <v>52</v>
       </c>
       <c r="G19" s="8">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7">
         <v>52</v>
@@ -1617,7 +1617,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" s="8">
         <v>1</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
         <v>49</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C22" s="7">
         <v>49</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>50</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
         <v>50</v>
@@ -1708,7 +1708,7 @@
         <v>53</v>
       </c>
       <c r="G25" s="8">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
